--- a/схема таблиц в SQL.xlsx
+++ b/схема таблиц в SQL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user-124\Documents\JavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user-124\Documents\JavaScript\Node_SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4496AF-63BF-4CB9-B708-99FA84492759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1E6624-4C91-48A5-99C5-391BC2CF0079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25185" yWindow="735" windowWidth="24870" windowHeight="14220" xr2:uid="{B1E48303-98C3-452A-AF5A-8169FF8C8F57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t> PLU - артикул товара</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>warehouse</t>
   </si>
 </sst>
 </file>
@@ -212,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -222,7 +234,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -537,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DE53AB-3824-4ED0-983E-3353A3B61C9F}">
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,12 +561,10 @@
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
       <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
@@ -570,64 +579,49 @@
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
         <v>36</v>
@@ -635,25 +629,31 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
         <v>36</v>
@@ -661,126 +661,153 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="2:2" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/схема таблиц в SQL.xlsx
+++ b/схема таблиц в SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user-124\Documents\JavaScript\Node_SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1E6624-4C91-48A5-99C5-391BC2CF0079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EF9F83-821F-4F8C-8035-FD1111BA974C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25185" yWindow="735" windowWidth="24870" windowHeight="14220" xr2:uid="{B1E48303-98C3-452A-AF5A-8169FF8C8F57}"/>
+    <workbookView xWindow="-28215" yWindow="705" windowWidth="24870" windowHeight="14220" xr2:uid="{B1E48303-98C3-452A-AF5A-8169FF8C8F57}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t> PLU - артикул товара</t>
   </si>
@@ -120,9 +120,6 @@
     <t>магазин</t>
   </si>
   <si>
-    <t>продажи</t>
-  </si>
-  <si>
     <t>склад</t>
   </si>
   <si>
@@ -160,6 +157,12 @@
   </si>
   <si>
     <t>warehouse</t>
+  </si>
+  <si>
+    <t>корзина товаров</t>
+  </si>
+  <si>
+    <t>корзина</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DE53AB-3824-4ED0-983E-3353A3B61C9F}">
-  <dimension ref="B1:K32"/>
+  <dimension ref="B1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J1" sqref="J1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,11 +563,11 @@
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
@@ -572,30 +575,33 @@
         <v>30</v>
       </c>
       <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,28 +612,28 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
       <c r="J3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -638,28 +644,28 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -670,68 +676,68 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
         <v>36</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
       <c r="J6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>

--- a/схема таблиц в SQL.xlsx
+++ b/схема таблиц в SQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user-124\Documents\JavaScript\Node_SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EF9F83-821F-4F8C-8035-FD1111BA974C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4AF597-7D27-4830-945E-34F8827949F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28215" yWindow="705" windowWidth="24870" windowHeight="14220" xr2:uid="{B1E48303-98C3-452A-AF5A-8169FF8C8F57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t> PLU - артикул товара</t>
   </si>
@@ -153,9 +153,6 @@
     <t>shop</t>
   </si>
   <si>
-    <t>sale</t>
-  </si>
-  <si>
     <t>warehouse</t>
   </si>
   <si>
@@ -163,6 +160,15 @@
   </si>
   <si>
     <t>корзина</t>
+  </si>
+  <si>
+    <t>basket</t>
+  </si>
+  <si>
+    <t>basket_product</t>
+  </si>
+  <si>
+    <t>скдал - корзина = остаток</t>
   </si>
 </sst>
 </file>
@@ -554,7 +560,7 @@
   <dimension ref="B1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:M6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,10 +581,10 @@
         <v>30</v>
       </c>
       <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
         <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>45</v>
       </c>
       <c r="L1" t="s">
         <v>31</v>
@@ -594,11 +600,14 @@
       <c r="F2" t="s">
         <v>41</v>
       </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
       <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
         <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -710,6 +719,11 @@
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">

--- a/схема таблиц в SQL.xlsx
+++ b/схема таблиц в SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user-124\Documents\JavaScript\Node_SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4AF597-7D27-4830-945E-34F8827949F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B120D857-D617-4797-9A66-3FC3CEC252D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28215" yWindow="705" windowWidth="24870" windowHeight="14220" xr2:uid="{B1E48303-98C3-452A-AF5A-8169FF8C8F57}"/>
+    <workbookView xWindow="-25140" yWindow="570" windowWidth="24870" windowHeight="14220" xr2:uid="{B1E48303-98C3-452A-AF5A-8169FF8C8F57}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
-  <si>
-    <t> PLU - артикул товара</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>- Название товара</t>
   </si>
@@ -141,9 +138,6 @@
     <t>Остаток товара на начало месяца + приход - расход = остаток товара на конец месяца.</t>
   </si>
   <si>
-    <t>поля</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -169,6 +163,15 @@
   </si>
   <si>
     <t>скдал - корзина = остаток</t>
+  </si>
+  <si>
+    <t>Нужно реализовать 2 сервиса. Один сервис остатков товаров в магазине. У товара могут быть следующие поля:</t>
+  </si>
+  <si>
+    <t>- PLU - артикул товара</t>
+  </si>
+  <si>
+    <t>Данные денормализованы, их нужно привести к 2-3 нормальной форме.</t>
   </si>
 </sst>
 </file>
@@ -198,12 +201,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -233,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -243,6 +252,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -557,233 +569,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DE53AB-3824-4ED0-983E-3353A3B61C9F}">
-  <dimension ref="B1:M32"/>
+  <dimension ref="B1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
@@ -791,40 +787,104 @@
         <v>8</v>
       </c>
     </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="102" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
